--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.71</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006373</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006374</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -846,25 +976,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>85.97</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>92.21</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,25 +1090,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.41</v>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1547,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1954,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8</v>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2125,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2141,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2860</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2359</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5385</t>
+          <t>0.5357</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -791,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>014412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>招商核心竞争力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5298</t>
+          <t>0.4429</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -829,302 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>014413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>招商核心竞争力混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.1663</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1189,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.5516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1227,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1265,150 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1757,36 +1263,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5516</t>
+          <t>0.0584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1795,36 +1301,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>95.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1833,36 +1339,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1927,32 +1547,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5357</t>
+          <t>0.5385</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1965,36 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014412</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合A</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>85.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4429</t>
+          <t>0.5298</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2003,36 +1623,302 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014413</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合C</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>85.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1663</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2046,128 +1932,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.65</v>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>014412</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>招商核心竞争力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5357</t>
+          <t>0.6584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014412</t>
+          <t>014413</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合A</t>
+          <t>招商核心竞争力混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4429</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014413</t>
+          <t>014606</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合C</t>
+          <t>招商高端装备混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1663</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -819,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5516</t>
+          <t>0.5357</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +902,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>014412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>招商核心竞争力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.4429</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -885,36 +940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>014413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>招商核心竞争力混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.1663</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,21 +1049,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.90</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6343</t>
+          <t>0.5516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1017,36 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.93</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0670</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1055,150 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1174,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,36 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>77.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.6343</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1301,36 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1339,36 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1377,36 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1415,36 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1453,36 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1491,6 +1432,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01765-希望教育.xlsx
+++ b/数据整理/stocks/港股/01765-希望教育.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>42.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.45</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6584</t>
+          <t>1.1462</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>19.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.45</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.5149</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0524</t>
+          <t>0.0836</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.0671</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,36 +881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>014412</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>招商核心竞争力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5357</t>
+          <t>0.6584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -902,36 +919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014412</t>
+          <t>014413</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合A</t>
+          <t>招商核心竞争力混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4429</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -940,36 +957,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014413</t>
+          <t>014606</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合C</t>
+          <t>招商高端装备混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1663</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1044,26 +1099,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5516</t>
+          <t>0.5357</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1072,36 +1127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>014412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>招商核心竞争力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.4429</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1110,36 +1165,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>014413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>招商核心竞争力混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.1663</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,21 +1274,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.90</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6343</t>
+          <t>0.5516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1242,36 +1297,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.93</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0670</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1280,150 +1335,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1399,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1488,36 +1429,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>77.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.6343</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1526,36 +1467,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1564,36 +1505,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1602,36 +1543,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1640,36 +1581,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1678,36 +1619,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1716,6 +1657,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2151,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
